--- a/reports_30-Mar-2020/30-Mar-2020_Model.xlsx
+++ b/reports_30-Mar-2020/30-Mar-2020_Model.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DO3"/>
+  <dimension ref="A1:DQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +721,12 @@
       <c r="DO1" s="1" t="n">
         <v>117</v>
       </c>
+      <c r="DP1" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -904,7 +910,7 @@
         <v>58</v>
       </c>
       <c r="BI2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BJ2" t="n">
         <v>59</v>
@@ -1079,6 +1085,12 @@
       </c>
       <c r="DO2" t="n">
         <v>116</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>117</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="3">
@@ -1086,358 +1098,364 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>688.9879897587678</v>
+        <v>744.8931837021528</v>
       </c>
       <c r="C3" t="n">
-        <v>368.9542465764736</v>
+        <v>401.7262567376216</v>
       </c>
       <c r="D3" t="n">
-        <v>116.4646848823747</v>
+        <v>130.3648872230917</v>
       </c>
       <c r="E3" t="n">
-        <v>-75.99560928353458</v>
+        <v>-77.11168413124756</v>
       </c>
       <c r="F3" t="n">
-        <v>-215.5722816350343</v>
+        <v>-228.2383456054835</v>
       </c>
       <c r="G3" t="n">
-        <v>-309.0417096396785</v>
+        <v>-330.1641144699815</v>
       </c>
       <c r="H3" t="n">
-        <v>-362.8110025187939</v>
+        <v>-389.6521369853845</v>
       </c>
       <c r="I3" t="n">
-        <v>-382.9180012474831</v>
+        <v>-413.0796884026113</v>
       </c>
       <c r="J3" t="n">
-        <v>-375.0312785546209</v>
+        <v>-406.4381729628585</v>
       </c>
       <c r="K3" t="n">
-        <v>-344.4501389228569</v>
+        <v>-375.3331238976011</v>
       </c>
       <c r="L3" t="n">
-        <v>-296.1046185886137</v>
+        <v>-324.9842034285903</v>
       </c>
       <c r="M3" t="n">
-        <v>-234.5554855420871</v>
+        <v>-260.2252027678551</v>
       </c>
       <c r="N3" t="n">
-        <v>-163.9942395272494</v>
+        <v>-185.5040421177009</v>
       </c>
       <c r="O3" t="n">
-        <v>-88.24311204184573</v>
+        <v>-104.8827706707102</v>
       </c>
       <c r="P3" t="n">
-        <v>-10.75506633739292</v>
+        <v>-22.03756660974705</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.38620258081551</v>
+        <v>59.7412628920556</v>
       </c>
       <c r="R3" t="n">
-        <v>137.466267953713</v>
+        <v>137.5492816712795</v>
       </c>
       <c r="S3" t="n">
-        <v>203.1399712684604</v>
+        <v>208.8679245742323</v>
       </c>
       <c r="T3" t="n">
-        <v>260.4314222584433</v>
+        <v>271.5644974569495</v>
       </c>
       <c r="U3" t="n">
-        <v>307.7339989032778</v>
+        <v>323.8921771851765</v>
       </c>
       <c r="V3" t="n">
-        <v>343.8103474287916</v>
+        <v>364.4900116343952</v>
       </c>
       <c r="W3" t="n">
-        <v>367.792382307063</v>
+        <v>392.3829196897977</v>
       </c>
       <c r="X3" t="n">
-        <v>379.1812862563718</v>
+        <v>406.9816912463139</v>
       </c>
       <c r="Y3" t="n">
-        <v>377.8475102412392</v>
+        <v>408.0829872085815</v>
       </c>
       <c r="Z3" t="n">
-        <v>364.0307734724108</v>
+        <v>395.8693394909706</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.3400634068437</v>
+        <v>370.9091510175649</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.75363574775</v>
+        <v>334.1566957221876</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.6190144445416</v>
+        <v>286.95211854836</v>
       </c>
       <c r="AD3" t="n">
-        <v>201.6529916928655</v>
+        <v>231.0214354493519</v>
       </c>
       <c r="AE3" t="n">
-        <v>141.9416279345958</v>
+        <v>168.4765333881433</v>
       </c>
       <c r="AF3" t="n">
-        <v>78.94025185783971</v>
+        <v>101.8151703374233</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.47346039690888</v>
+        <v>33.92097527962778</v>
       </c>
       <c r="AH3" t="n">
-        <v>-45.26488126763547</v>
+        <v>-31.93655179308644</v>
       </c>
       <c r="AI3" t="n">
-        <v>-99.71163970901875</v>
+        <v>-92.10203987886143</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-143.9344132542312</v>
+        <v>-142.5342469661036</v>
       </c>
       <c r="AK3" t="n">
-        <v>-173.6315319840389</v>
+        <v>-178.806060033482</v>
       </c>
       <c r="AL3" t="n">
-        <v>-184.1320577330073</v>
+        <v>-196.104495049959</v>
       </c>
       <c r="AM3" t="n">
-        <v>-170.395784089432</v>
+        <v>-189.2306969747906</v>
       </c>
       <c r="AN3" t="n">
-        <v>-127.0132363953883</v>
+        <v>-152.5999397574842</v>
       </c>
       <c r="AO3" t="n">
-        <v>-48.2056717467924</v>
+        <v>-80.24162633781725</v>
       </c>
       <c r="AP3" t="n">
-        <v>72.17492100674349</v>
+        <v>34.20071135412672</v>
       </c>
       <c r="AQ3" t="n">
-        <v>240.645821261817</v>
+        <v>197.4694123979907</v>
       </c>
       <c r="AR3" t="n">
-        <v>464.0935766612463</v>
+        <v>416.6926868831806</v>
       </c>
       <c r="AS3" t="n">
-        <v>749.7740030940411</v>
+        <v>699.3846159087852</v>
       </c>
       <c r="AT3" t="n">
-        <v>1105.312184695497</v>
+        <v>1053.445151583605</v>
       </c>
       <c r="AU3" t="n">
-        <v>1538.70247384708</v>
+        <v>1487.160117026201</v>
       </c>
       <c r="AV3" t="n">
-        <v>2058.308491176526</v>
+        <v>2009.20120636483</v>
       </c>
       <c r="AW3" t="n">
-        <v>2672.863125557779</v>
+        <v>2628.625984737512</v>
       </c>
       <c r="AX3" t="n">
-        <v>3391.468534111017</v>
+        <v>3354.877888291915</v>
       </c>
       <c r="AY3" t="n">
-        <v>4223.596142202588</v>
+        <v>4197.78622418549</v>
       </c>
       <c r="AZ3" t="n">
-        <v>5179.086643445146</v>
+        <v>5167.566170585415</v>
       </c>
       <c r="BA3" t="n">
-        <v>6268.149999697577</v>
+        <v>6274.81877666856</v>
       </c>
       <c r="BB3" t="n">
-        <v>7501.365441064904</v>
+        <v>7530.530962621518</v>
       </c>
       <c r="BC3" t="n">
-        <v>8889.681465898466</v>
+        <v>8946.075519640624</v>
       </c>
       <c r="BD3" t="n">
-        <v>10444.41584079574</v>
+        <v>10533.21110993189</v>
       </c>
       <c r="BE3" t="n">
-        <v>12177.25560060052</v>
+        <v>12304.08226671119</v>
       </c>
       <c r="BF3" t="n">
-        <v>14100.25704840278</v>
+        <v>14271.21939420389</v>
       </c>
       <c r="BG3" t="n">
-        <v>16225.84575553874</v>
+        <v>16447.53876764527</v>
       </c>
       <c r="BH3" t="n">
-        <v>18566.81656159078</v>
+        <v>18846.34253328033</v>
       </c>
       <c r="BI3" t="n">
-        <v>18566.81656159078</v>
+        <v>21481.31870836364</v>
       </c>
       <c r="BJ3" t="n">
-        <v>21136.33357438764</v>
+        <v>21481.31870836364</v>
       </c>
       <c r="BK3" t="n">
-        <v>23947.9301700041</v>
+        <v>24366.54118115954</v>
       </c>
       <c r="BL3" t="n">
-        <v>27015.5089927613</v>
+        <v>27516.46971094229</v>
       </c>
       <c r="BM3" t="n">
-        <v>30353.34195522666</v>
+        <v>30945.94992799558</v>
       </c>
       <c r="BN3" t="n">
-        <v>33976.07023821365</v>
+        <v>34670.21333361305</v>
       </c>
       <c r="BO3" t="n">
-        <v>37898.70429078209</v>
+        <v>38704.877300098</v>
       </c>
       <c r="BP3" t="n">
-        <v>42136.62383023799</v>
+        <v>43065.94507076328</v>
       </c>
       <c r="BQ3" t="n">
-        <v>46705.5778421336</v>
+        <v>47769.80575993181</v>
       </c>
       <c r="BR3" t="n">
-        <v>51621.68458026736</v>
+        <v>52833.23435293588</v>
       </c>
       <c r="BS3" t="n">
-        <v>56901.43156668406</v>
+        <v>58273.39170611773</v>
       </c>
       <c r="BT3" t="n">
-        <v>62561.6755916745</v>
+        <v>64107.82454682929</v>
       </c>
       <c r="BU3" t="n">
-        <v>68619.6427137759</v>
+        <v>70354.46547343199</v>
       </c>
       <c r="BV3" t="n">
-        <v>75092.92825977154</v>
+        <v>77031.63295529743</v>
       </c>
       <c r="BW3" t="n">
-        <v>81999.49682469112</v>
+        <v>84158.03133280652</v>
       </c>
       <c r="BX3" t="n">
-        <v>89357.68227181041</v>
+        <v>91752.75081734984</v>
       </c>
       <c r="BY3" t="n">
-        <v>97186.18773265147</v>
+        <v>99835.26749132831</v>
       </c>
       <c r="BZ3" t="n">
-        <v>105504.0856069826</v>
+        <v>108425.443308152</v>
       </c>
       <c r="CA3" t="n">
-        <v>114330.8175628183</v>
+        <v>117543.5260922405</v>
       </c>
       <c r="CB3" t="n">
-        <v>123686.1945364191</v>
+        <v>127210.1495390241</v>
       </c>
       <c r="CC3" t="n">
-        <v>133590.3967322924</v>
+        <v>137446.3332149417</v>
       </c>
       <c r="CD3" t="n">
-        <v>144063.9736231909</v>
+        <v>148273.4825574427</v>
       </c>
       <c r="CE3" t="n">
-        <v>155127.8439501143</v>
+        <v>159713.3888749858</v>
       </c>
       <c r="CF3" t="n">
-        <v>166803.2957223082</v>
+        <v>171788.2293470396</v>
       </c>
       <c r="CG3" t="n">
-        <v>179111.9862172644</v>
+        <v>184520.5670240823</v>
       </c>
       <c r="CH3" t="n">
-        <v>192075.941980721</v>
+        <v>197933.3508276022</v>
       </c>
       <c r="CI3" t="n">
-        <v>205717.5588266623</v>
+        <v>212049.9155500966</v>
       </c>
       <c r="CJ3" t="n">
-        <v>220059.6018373188</v>
+        <v>226893.9818550733</v>
       </c>
       <c r="CK3" t="n">
-        <v>235125.2053631673</v>
+        <v>242489.6562770494</v>
       </c>
       <c r="CL3" t="n">
-        <v>250937.8730229308</v>
+        <v>258861.4312215515</v>
       </c>
       <c r="CM3" t="n">
-        <v>267521.4777035786</v>
+        <v>276034.1849651168</v>
       </c>
       <c r="CN3" t="n">
-        <v>284900.261560326</v>
+        <v>294033.1816552911</v>
       </c>
       <c r="CO3" t="n">
-        <v>303098.8360166348</v>
+        <v>312884.0713106309</v>
       </c>
       <c r="CP3" t="n">
-        <v>322142.1817642128</v>
+        <v>332612.8898207014</v>
       </c>
       <c r="CQ3" t="n">
-        <v>342055.6487630139</v>
+        <v>353246.0589460788</v>
       </c>
       <c r="CR3" t="n">
-        <v>362864.9562412389</v>
+        <v>374810.3863183481</v>
       </c>
       <c r="CS3" t="n">
-        <v>384596.1926953343</v>
+        <v>397333.0654401041</v>
       </c>
       <c r="CT3" t="n">
-        <v>407275.8158899925</v>
+        <v>420841.6756849515</v>
       </c>
       <c r="CU3" t="n">
-        <v>430930.6528581529</v>
+        <v>445364.1822975046</v>
       </c>
       <c r="CV3" t="n">
-        <v>455587.8999010003</v>
+        <v>470928.9363933882</v>
       </c>
       <c r="CW3" t="n">
-        <v>481275.122587967</v>
+        <v>497564.6749592351</v>
       </c>
       <c r="CX3" t="n">
-        <v>508020.25575673</v>
+        <v>525300.5208526895</v>
       </c>
       <c r="CY3" t="n">
-        <v>535851.6035132132</v>
+        <v>554165.9828024047</v>
       </c>
       <c r="CZ3" t="n">
-        <v>564797.8392315876</v>
+        <v>584190.9554080437</v>
       </c>
       <c r="DA3" t="n">
-        <v>594888.0055542687</v>
+        <v>615405.7191402793</v>
       </c>
       <c r="DB3" t="n">
-        <v>626151.5143919195</v>
+        <v>647840.9403407932</v>
       </c>
       <c r="DC3" t="n">
-        <v>658618.1469234483</v>
+        <v>681527.6712222788</v>
       </c>
       <c r="DD3" t="n">
-        <v>692318.0535960108</v>
+        <v>716497.3498684373</v>
       </c>
       <c r="DE3" t="n">
-        <v>727281.7541250082</v>
+        <v>752781.8002339806</v>
       </c>
       <c r="DF3" t="n">
-        <v>763540.1374940876</v>
+        <v>790413.2321446293</v>
       </c>
       <c r="DG3" t="n">
-        <v>801124.4619551433</v>
+        <v>829424.2412971156</v>
       </c>
       <c r="DH3" t="n">
-        <v>840066.3550283151</v>
+        <v>869847.80925918</v>
       </c>
       <c r="DI3" t="n">
-        <v>880397.8135019889</v>
+        <v>911717.3034695727</v>
       </c>
       <c r="DJ3" t="n">
-        <v>922151.2034327969</v>
+        <v>955066.4772380535</v>
       </c>
       <c r="DK3" t="n">
-        <v>965359.2601456187</v>
+        <v>999929.4697453929</v>
       </c>
       <c r="DL3" t="n">
-        <v>1010055.088233578</v>
+        <v>1046340.806043371</v>
       </c>
       <c r="DM3" t="n">
-        <v>1056272.161558047</v>
+        <v>1094335.397054777</v>
       </c>
       <c r="DN3" t="n">
-        <v>1104044.323248642</v>
+        <v>1143948.539573409</v>
       </c>
       <c r="DO3" t="n">
-        <v>1153405.785703228</v>
+        <v>1195215.916264078</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>1248173.5956626</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>1302858.032175806</v>
       </c>
     </row>
   </sheetData>
